--- a/社区支持问题列表.xlsx
+++ b/社区支持问题列表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksd/rancher/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksd/rancher/community-support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E921380D-FDEF-1040-8160-32D90BFC535F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC96A5-D947-9E4B-B5D3-8CEA81D3C78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{C990730C-9D18-2742-AE98-2A6AC2FBC5FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{C990730C-9D18-2742-AE98-2A6AC2FBC5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +210,61 @@
   </si>
   <si>
     <t>用时(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>larry(川)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目级别配置了log收集，点击测试能发到 elasticseach，但是pod中的log却无法收集到。是怎么回事昵？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认一下 容器的log有没有生成，比如在ui上看下容器的log
+如果有log，可以到system project下看看 logging的几个日志，看看有没有报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书轮转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信6群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果节点的ⅰp换了，有说明方案么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果node换IP，个人建议先驱散节点，然后清理环境，换IP之后从新将节点添加到集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网环境，启用监控时，monitoring version 为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为内网环境无法从公网拉去system-chart导致，解决方案：
+1. 升级集群，添加useBundledSystemChart：true
+2. 在内网环境搭gitlib服务器，将system-chart上传到gitlab，并在rancher中配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序人生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -429,13 +485,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,12 +562,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -516,21 +601,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -722,8 +792,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{609F45FA-E843-0647-A458-F2F4FA7F9E62}" name="表2" displayName="表2" ref="B2:I11" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
-  <autoFilter ref="B2:I11" xr:uid="{1CBDEC3E-2C40-6245-8A32-22F71D4F9354}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{609F45FA-E843-0647-A458-F2F4FA7F9E62}" name="表2" displayName="表2" ref="B2:I14" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+  <autoFilter ref="B2:I14" xr:uid="{1CBDEC3E-2C40-6245-8A32-22F71D4F9354}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{96F3B24D-9F93-3643-A405-760584070518}" name="时间" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{4E5B65BE-DDB9-5143-853F-97CEC650E699}" name="来源" dataDxfId="6"/>
@@ -731,8 +801,8 @@
     <tableColumn id="4" xr3:uid="{ABCC9C5E-43C7-7C46-BF29-060392F7B735}" name="分类" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C984FD2A-0D15-3F4C-AC94-CD0826739B73}" name="问题" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{8CD8F09A-7677-2C40-A9F2-CEC602DD33B3}" name="解决办法" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A1AF0E44-FE23-FA46-BC13-68C7FCC10A33}" name="是否解决" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{93DDE42D-F464-5F43-9769-C1DF03481781}" name="用时(h)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A1AF0E44-FE23-FA46-BC13-68C7FCC10A33}" name="是否解决" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{93DDE42D-F464-5F43-9769-C1DF03481781}" name="用时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1035,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08B50B8-E29E-A347-88CC-69977F4E22E5}">
-  <dimension ref="B1:I82"/>
+  <dimension ref="B1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1302,27 +1372,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="17" thickBot="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+    <row r="12" spans="2:9" ht="34">
+      <c r="B12" s="20">
+        <v>43947</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" ht="17">
+      <c r="B13" s="20">
+        <v>43948</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" ht="51">
+      <c r="B14" s="20">
+        <v>43948</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="17" thickBot="1">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:9">
       <c r="F16" s="1"/>
@@ -1591,6 +1721,18 @@
     <row r="82" spans="6:7">
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,4 +1745,25 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E319BDF-EEDA-CE4E-85C8-C93E74EE1688}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>